--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_7.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9662203789177217</v>
+        <v>0.9953143980328497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7665048923026501</v>
+        <v>0.7971337606653747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9685310701662366</v>
+        <v>0.9943166428628664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8927201989066716</v>
+        <v>0.9598768938369129</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9433268820117083</v>
+        <v>0.9914009474815288</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2258844817180479</v>
+        <v>0.03133264192954706</v>
       </c>
       <c r="H2" t="n">
-        <v>1.56138286031829</v>
+        <v>1.35656747654378</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2655213053291708</v>
+        <v>0.08682036053754409</v>
       </c>
       <c r="J2" t="n">
-        <v>1.146256705289139</v>
+        <v>0.05682691853588998</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7058888713664988</v>
+        <v>0.07182361828705199</v>
       </c>
       <c r="L2" t="n">
-        <v>1.593933837464264</v>
+        <v>0.1553245653498425</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4752730601644153</v>
+        <v>0.1770102876376033</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00871732156962</v>
+        <v>1.003407710521564</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4955064182864795</v>
+        <v>0.1845459820441456</v>
       </c>
       <c r="P2" t="n">
-        <v>236.9754631064568</v>
+        <v>120.926189703404</v>
       </c>
       <c r="Q2" t="n">
-        <v>379.5839346160362</v>
+        <v>190.4021117208914</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9662203600451219</v>
+        <v>0.9960956401013917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7665048819291467</v>
+        <v>0.7970827422444602</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9685310286592828</v>
+        <v>0.9940332647111962</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8927201578609623</v>
+        <v>0.9584149788912706</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9433268460461319</v>
+        <v>0.9910178505533638</v>
       </c>
       <c r="G3" t="n">
-        <v>0.22588460791921</v>
+        <v>0.02610847261991756</v>
       </c>
       <c r="H3" t="n">
-        <v>1.561382929685955</v>
+        <v>1.356908636959353</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2655216555470094</v>
+        <v>0.0911493148338898</v>
       </c>
       <c r="J3" t="n">
-        <v>1.146257143851842</v>
+        <v>0.05889744919681981</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7058893193337363</v>
+        <v>0.07502343681082058</v>
       </c>
       <c r="L3" t="n">
-        <v>1.593934609132559</v>
+        <v>0.2164679632417179</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4752731929314024</v>
+        <v>0.1615811641866637</v>
       </c>
       <c r="N3" t="n">
-        <v>1.008717326439968</v>
+        <v>1.002839534471715</v>
       </c>
       <c r="O3" t="n">
-        <v>0.495506556705632</v>
+        <v>0.1684600088652108</v>
       </c>
       <c r="P3" t="n">
-        <v>236.9754619890615</v>
+        <v>121.2909907917577</v>
       </c>
       <c r="Q3" t="n">
-        <v>379.583933498641</v>
+        <v>190.7669128092451</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9662203588124849</v>
+        <v>0.9961906942841768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7665048568423202</v>
+        <v>0.7967600798038974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9685310741742877</v>
+        <v>0.9938171793913054</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8927201170955071</v>
+        <v>0.9566051836590055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9433268267714654</v>
+        <v>0.9906668105175537</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2258846161618592</v>
+        <v>0.02547284486194961</v>
       </c>
       <c r="H4" t="n">
-        <v>1.561383097441679</v>
+        <v>1.359066282185121</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2655212715109584</v>
+        <v>0.09445028729208968</v>
       </c>
       <c r="J4" t="n">
-        <v>1.146257579420102</v>
+        <v>0.06146068759148787</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7058895594082748</v>
+        <v>0.07795550002142923</v>
       </c>
       <c r="L4" t="n">
-        <v>1.593932630994632</v>
+        <v>0.248405606460981</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4752732016028878</v>
+        <v>0.1596021455430647</v>
       </c>
       <c r="N4" t="n">
-        <v>1.008717326758068</v>
+        <v>1.002770404156962</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4955065657462806</v>
+        <v>0.1663967393008205</v>
       </c>
       <c r="P4" t="n">
-        <v>236.9754619160804</v>
+        <v>121.340284603218</v>
       </c>
       <c r="Q4" t="n">
-        <v>379.5839334256599</v>
+        <v>190.8162066207054</v>
       </c>
     </row>
     <row r="5">
@@ -687,1152 +687,1152 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9662203126039988</v>
+        <v>0.9961633258345569</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7665047806045326</v>
+        <v>0.7965229889867036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9685310153691522</v>
+        <v>0.9936899419412675</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8927199827834252</v>
+        <v>0.9554263134029989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9433267718275244</v>
+        <v>0.9904505187492418</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2258849251582187</v>
+        <v>0.02565585781057771</v>
       </c>
       <c r="H5" t="n">
-        <v>1.561383607244115</v>
+        <v>1.360651709571399</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2655217676834193</v>
+        <v>0.09639399785252545</v>
       </c>
       <c r="J5" t="n">
-        <v>1.146259014509681</v>
+        <v>0.06313033808490109</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7058902437594771</v>
+        <v>0.07976207782433176</v>
       </c>
       <c r="L5" t="n">
-        <v>1.593934029821702</v>
+        <v>0.2647451509520287</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4752735266751333</v>
+        <v>0.1601744605440509</v>
       </c>
       <c r="N5" t="n">
-        <v>1.008717338682839</v>
+        <v>1.002790308483959</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4955069046575246</v>
+        <v>0.1669934189362541</v>
       </c>
       <c r="P5" t="n">
-        <v>236.9754591802044</v>
+        <v>121.325966717515</v>
       </c>
       <c r="Q5" t="n">
-        <v>379.5839306897839</v>
+        <v>190.8018887350024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_22</t>
+          <t>model_18_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9961307656271474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7963852991186423</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9936214219032747</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9547680721093984</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9903320328763542</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02587358806745158</v>
       </c>
       <c r="H6" t="n">
-        <v>1.561384598994899</v>
+        <v>1.361572442353128</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09744072679442239</v>
       </c>
       <c r="J6" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06406261446989359</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.0807517315202954</v>
       </c>
       <c r="L6" t="n">
-        <v>1.593936537812531</v>
+        <v>0.27300891294809</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.160852690581947</v>
       </c>
       <c r="N6" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002813988634802</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1677005226309931</v>
       </c>
       <c r="P6" t="n">
-        <v>236.9754527215351</v>
+        <v>121.3090651926539</v>
       </c>
       <c r="Q6" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7849872101413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_21</t>
+          <t>model_18_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9961097757292611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7963116164575745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935859931218954</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9544217059480566</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902702524489607</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.0260139476112672</v>
       </c>
       <c r="H7" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362065158646965</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09798194556680245</v>
       </c>
       <c r="J7" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06455317772673999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08126775277091372</v>
       </c>
       <c r="L7" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2771645471335068</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1612883988737789</v>
       </c>
       <c r="N7" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002829254015083</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1681547799268488</v>
       </c>
       <c r="P7" t="n">
-        <v>236.9754527215351</v>
+        <v>121.298244876419</v>
       </c>
       <c r="Q7" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7741668939064</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_20</t>
+          <t>model_18_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.996098093682485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962736063796143</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935678793909885</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9542445381070976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902386988245453</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02609206551184919</v>
       </c>
       <c r="H8" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362319332213305</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09825865537230594</v>
       </c>
       <c r="J8" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06480410302710031</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08153130453673027</v>
       </c>
       <c r="L8" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2792444597381267</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1615303857230868</v>
       </c>
       <c r="N8" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002837750049102</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1684070686573136</v>
       </c>
       <c r="P8" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2922480284986</v>
       </c>
       <c r="Q8" t="n">
-        <v>379.5839242311146</v>
+        <v>190.768170045986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_19</t>
+          <t>model_18_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960919628673695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962542857883359</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935588375495794</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9541545503637423</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902227777960169</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02613306230075705</v>
       </c>
       <c r="H9" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362448529096148</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09839678076406244</v>
       </c>
       <c r="J9" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06493155393132724</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08166428498699525</v>
       </c>
       <c r="L9" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2802889054468443</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.161657237081292</v>
       </c>
       <c r="N9" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002842208823731</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1685393203404561</v>
       </c>
       <c r="P9" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2891080229843</v>
       </c>
       <c r="Q9" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7650300404717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_18</t>
+          <t>model_18_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960888112390951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962445190188506</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935542072104059</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9541092814380571</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902147522875352</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02615413725353917</v>
       </c>
       <c r="H10" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362513839528667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.0984675149633665</v>
       </c>
       <c r="J10" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06499566894629313</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.0817313180765722</v>
       </c>
       <c r="L10" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2808147010517766</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617224080130492</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002844500917022</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686072657337007</v>
       </c>
       <c r="P10" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2874957772261</v>
       </c>
       <c r="Q10" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7634177947135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_17</t>
+          <t>model_18_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960871884045616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.796239704572676</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935519264931622</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540863717523195</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.990210657907892</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02616498915553738</v>
       </c>
       <c r="H11" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362546033752406</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09850235576055819</v>
       </c>
       <c r="J11" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06502811625582595</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08176551639783926</v>
       </c>
       <c r="L11" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2810756557224247</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.161755955548899</v>
       </c>
       <c r="N11" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002845681160319</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686422414576045</v>
       </c>
       <c r="P11" t="n">
-        <v>236.9754527215351</v>
+        <v>121.286666107245</v>
       </c>
       <c r="Q11" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7625881247324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_16</t>
+          <t>model_18_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960864053737116</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962372172961097</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935507971842185</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540752377206754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902086946256475</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617022528643653</v>
       </c>
       <c r="H12" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362562666182257</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09851960736155541</v>
       </c>
       <c r="J12" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06504388554115105</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08178191472012103</v>
       </c>
       <c r="L12" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2812062489008556</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617721400193387</v>
       </c>
       <c r="N12" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846250637301</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686591149344573</v>
       </c>
       <c r="P12" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2862659078021</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7621879252895</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_15</t>
+          <t>model_18_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960860146785387</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962359626758981</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935502522664743</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540694235221566</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902077163047318</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617283786685697</v>
       </c>
       <c r="H13" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362571055833389</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09852793165895064</v>
       </c>
       <c r="J13" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06505212027213701</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179008614922487</v>
       </c>
       <c r="L13" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2812718493342777</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617802146952988</v>
       </c>
       <c r="N13" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846534779245</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686675333660899</v>
       </c>
       <c r="P13" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2860662572455</v>
       </c>
       <c r="Q13" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7619882747329</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_14</t>
+          <t>model_18_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960857881565004</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962353917727629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935499065508745</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540662570591515</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902071469693614</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617435262076994</v>
       </c>
       <c r="H14" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362574873465283</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853321289542566</v>
       </c>
       <c r="J14" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06505660497814439</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179484152503261</v>
       </c>
       <c r="L14" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813099603655629</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617848961453755</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846699522545</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686724141151884</v>
       </c>
       <c r="P14" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2859505105245</v>
       </c>
       <c r="Q14" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7618725280119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_12</t>
+          <t>model_18_7_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.996085640584646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962348818427224</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935497102976858</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540643489268289</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902067736827302</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617533943444042</v>
       </c>
       <c r="H15" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362578283369812</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.0985362109073742</v>
       </c>
       <c r="J15" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06505930749274054</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179795940301424</v>
       </c>
       <c r="L15" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813281415107619</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617879458873263</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008717366834089</v>
+        <v>1.00284680684753</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686755936909678</v>
       </c>
       <c r="P15" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858751088454</v>
       </c>
       <c r="Q15" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617971263328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_23</t>
+          <t>model_18_7_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H16" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J16" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L16" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N16" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P16" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q16" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_11</t>
+          <t>model_18_7_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H17" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J17" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L17" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N17" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P17" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q17" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_10</t>
+          <t>model_18_7_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H18" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J18" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L18" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N18" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P18" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q18" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_9</t>
+          <t>model_18_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H19" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J19" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L19" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N19" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P19" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q19" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_8</t>
+          <t>model_18_7_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H20" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J20" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L20" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N20" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P20" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q20" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_7</t>
+          <t>model_18_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H21" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J21" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L21" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N21" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P21" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q21" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_6</t>
+          <t>model_18_7_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H22" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J22" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L22" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N22" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P22" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q22" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_5</t>
+          <t>model_18_7_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H23" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J23" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L23" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N23" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P23" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q23" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_4</t>
+          <t>model_18_7_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H24" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J24" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L24" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N24" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P24" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q24" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_13</t>
+          <t>model_18_7_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H25" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J25" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L25" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N25" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P25" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q25" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9662202035179066</v>
+        <v>0.9960855959393798</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7665046322943636</v>
+        <v>0.7962347415611599</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9685309238431016</v>
+        <v>0.9935496151885742</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8927196283631489</v>
+        <v>0.9540637518129644</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9433265769802067</v>
+        <v>0.9902066648200792</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2258856546174196</v>
+        <v>0.02617563797754006</v>
       </c>
       <c r="H26" t="n">
-        <v>1.561384598994899</v>
+        <v>1.362579221433266</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2655225399408984</v>
+        <v>0.09853766381753884</v>
       </c>
       <c r="J26" t="n">
-        <v>1.146262801397931</v>
+        <v>0.06506015319348946</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7058926706694147</v>
+        <v>0.08179886867871305</v>
       </c>
       <c r="L26" t="n">
-        <v>1.593936537812531</v>
+        <v>0.2813382604806661</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4752742940843945</v>
+        <v>0.1617888685217251</v>
       </c>
       <c r="N26" t="n">
-        <v>1.008717366834089</v>
+        <v>1.002846839316815</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4955077047369868</v>
+        <v>0.1686765556038231</v>
       </c>
       <c r="P26" t="n">
-        <v>236.9754527215351</v>
+        <v>121.2858522979552</v>
       </c>
       <c r="Q26" t="n">
-        <v>379.5839242311146</v>
+        <v>190.7617743154426</v>
       </c>
     </row>
   </sheetData>
